--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.578851</v>
+        <v>0.30506</v>
       </c>
       <c r="H2">
-        <v>1.736553</v>
+        <v>0.91518</v>
       </c>
       <c r="I2">
-        <v>0.1369952482678105</v>
+        <v>0.07720017721337037</v>
       </c>
       <c r="J2">
-        <v>0.1369952482678105</v>
+        <v>0.07720017721337037</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.422708</v>
+        <v>3.073545</v>
       </c>
       <c r="N2">
-        <v>31.268124</v>
+        <v>9.220635</v>
       </c>
       <c r="O2">
-        <v>0.8537134449068419</v>
+        <v>0.6324804786546022</v>
       </c>
       <c r="P2">
-        <v>0.8537134449068419</v>
+        <v>0.6324804786546022</v>
       </c>
       <c r="Q2">
-        <v>6.033194948508</v>
+        <v>0.9376156376999999</v>
       </c>
       <c r="R2">
-        <v>54.298754536572</v>
+        <v>8.4385407393</v>
       </c>
       <c r="S2">
-        <v>0.1169546853345805</v>
+        <v>0.04882760503613261</v>
       </c>
       <c r="T2">
-        <v>0.1169546853345805</v>
+        <v>0.04882760503613261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.578851</v>
+        <v>0.30506</v>
       </c>
       <c r="H3">
-        <v>1.736553</v>
+        <v>0.91518</v>
       </c>
       <c r="I3">
-        <v>0.1369952482678105</v>
+        <v>0.07720017721337037</v>
       </c>
       <c r="J3">
-        <v>0.1369952482678105</v>
+        <v>0.07720017721337037</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.144469</v>
       </c>
       <c r="O3">
-        <v>0.08585342255879412</v>
+        <v>0.215691788931517</v>
       </c>
       <c r="P3">
-        <v>0.08585342255879413</v>
+        <v>0.215691788931517</v>
       </c>
       <c r="Q3">
-        <v>0.6067263417063333</v>
+        <v>0.3197505710466667</v>
       </c>
       <c r="R3">
-        <v>5.460537075357</v>
+        <v>2.87775513942</v>
       </c>
       <c r="S3">
-        <v>0.01176151093808324</v>
+        <v>0.01665144432898199</v>
       </c>
       <c r="T3">
-        <v>0.01176151093808324</v>
+        <v>0.01665144432898199</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.578851</v>
+        <v>0.30506</v>
       </c>
       <c r="H4">
-        <v>1.736553</v>
+        <v>0.91518</v>
       </c>
       <c r="I4">
-        <v>0.1369952482678105</v>
+        <v>0.07720017721337037</v>
       </c>
       <c r="J4">
-        <v>0.1369952482678105</v>
+        <v>0.07720017721337037</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.213425</v>
       </c>
       <c r="O4">
-        <v>0.06043313253436396</v>
+        <v>0.1518277324138807</v>
       </c>
       <c r="P4">
-        <v>0.06043313253436396</v>
+        <v>0.1518277324138807</v>
       </c>
       <c r="Q4">
-        <v>0.4270810915583333</v>
+        <v>0.2250758101666666</v>
       </c>
       <c r="R4">
-        <v>3.843729824025</v>
+        <v>2.0256822915</v>
       </c>
       <c r="S4">
-        <v>0.008279051995146683</v>
+        <v>0.01172112784825577</v>
       </c>
       <c r="T4">
-        <v>0.008279051995146683</v>
+        <v>0.01172112784825577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.879048666666667</v>
+        <v>2.879048666666666</v>
       </c>
       <c r="H5">
-        <v>8.637146000000001</v>
+        <v>8.637146</v>
       </c>
       <c r="I5">
-        <v>0.6813773956771411</v>
+        <v>0.7285880393122151</v>
       </c>
       <c r="J5">
-        <v>0.681377395677141</v>
+        <v>0.7285880393122151</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.422708</v>
+        <v>3.073545</v>
       </c>
       <c r="N5">
-        <v>31.268124</v>
+        <v>9.220635</v>
       </c>
       <c r="O5">
-        <v>0.8537134449068419</v>
+        <v>0.6324804786546022</v>
       </c>
       <c r="P5">
-        <v>0.8537134449068419</v>
+        <v>0.6324804786546022</v>
       </c>
       <c r="Q5">
-        <v>30.00748357045601</v>
+        <v>8.848885634189998</v>
       </c>
       <c r="R5">
-        <v>270.0673521341041</v>
+        <v>79.63997070770999</v>
       </c>
       <c r="S5">
-        <v>0.5817010437451844</v>
+        <v>0.4608177118462079</v>
       </c>
       <c r="T5">
-        <v>0.5817010437451843</v>
+        <v>0.4608177118462079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.879048666666667</v>
+        <v>2.879048666666666</v>
       </c>
       <c r="H6">
-        <v>8.637146000000001</v>
+        <v>8.637146</v>
       </c>
       <c r="I6">
-        <v>0.6813773956771411</v>
+        <v>0.7285880393122151</v>
       </c>
       <c r="J6">
-        <v>0.681377395677141</v>
+        <v>0.7285880393122151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.144469</v>
       </c>
       <c r="O6">
-        <v>0.08585342255879412</v>
+        <v>0.215691788931517</v>
       </c>
       <c r="P6">
-        <v>0.08585342255879413</v>
+        <v>0.215691788931517</v>
       </c>
       <c r="Q6">
-        <v>3.017693093941556</v>
+        <v>3.017693093941555</v>
       </c>
       <c r="R6">
         <v>27.159237845474</v>
       </c>
       <c r="S6">
-        <v>0.05849858147308025</v>
+        <v>0.1571504575933581</v>
       </c>
       <c r="T6">
-        <v>0.05849858147308025</v>
+        <v>0.1571504575933581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.879048666666667</v>
+        <v>2.879048666666666</v>
       </c>
       <c r="H7">
-        <v>8.637146000000001</v>
+        <v>8.637146</v>
       </c>
       <c r="I7">
-        <v>0.6813773956771411</v>
+        <v>0.7285880393122151</v>
       </c>
       <c r="J7">
-        <v>0.681377395677141</v>
+        <v>0.7285880393122151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>2.213425</v>
       </c>
       <c r="O7">
-        <v>0.06043313253436396</v>
+        <v>0.1518277324138807</v>
       </c>
       <c r="P7">
-        <v>0.06043313253436396</v>
+        <v>0.1518277324138807</v>
       </c>
       <c r="Q7">
-        <v>2.124186098338889</v>
+        <v>2.124186098338888</v>
       </c>
       <c r="R7">
         <v>19.11767488505</v>
       </c>
       <c r="S7">
-        <v>0.04117777045887642</v>
+        <v>0.110619869872649</v>
       </c>
       <c r="T7">
-        <v>0.04117777045887641</v>
+        <v>0.110619869872649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7674366666666667</v>
+        <v>0.7674366666666668</v>
       </c>
       <c r="H8">
         <v>2.30231</v>
       </c>
       <c r="I8">
-        <v>0.1816273560550485</v>
+        <v>0.1942117834744146</v>
       </c>
       <c r="J8">
-        <v>0.1816273560550485</v>
+        <v>0.1942117834744146</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.422708</v>
+        <v>3.073545</v>
       </c>
       <c r="N8">
-        <v>31.268124</v>
+        <v>9.220635</v>
       </c>
       <c r="O8">
-        <v>0.8537134449068419</v>
+        <v>0.6324804786546022</v>
       </c>
       <c r="P8">
-        <v>0.8537134449068419</v>
+        <v>0.6324804786546022</v>
       </c>
       <c r="Q8">
-        <v>7.99876828516</v>
+        <v>2.35875112965</v>
       </c>
       <c r="R8">
-        <v>71.98891456644</v>
+        <v>21.22876016685</v>
       </c>
       <c r="S8">
-        <v>0.155057715827077</v>
+        <v>0.1228351617722617</v>
       </c>
       <c r="T8">
-        <v>0.155057715827077</v>
+        <v>0.1228351617722617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7674366666666667</v>
+        <v>0.7674366666666668</v>
       </c>
       <c r="H9">
         <v>2.30231</v>
       </c>
       <c r="I9">
-        <v>0.1816273560550485</v>
+        <v>0.1942117834744146</v>
       </c>
       <c r="J9">
-        <v>0.1816273560550485</v>
+        <v>0.1942117834744146</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.144469</v>
       </c>
       <c r="O9">
-        <v>0.08585342255879412</v>
+        <v>0.215691788931517</v>
       </c>
       <c r="P9">
-        <v>0.08585342255879413</v>
+        <v>0.215691788931517</v>
       </c>
       <c r="Q9">
-        <v>0.8043936025988888</v>
+        <v>0.8043936025988889</v>
       </c>
       <c r="R9">
-        <v>7.23954242339</v>
+        <v>7.239542423390001</v>
       </c>
       <c r="S9">
-        <v>0.01559333014763064</v>
+        <v>0.04188988700917691</v>
       </c>
       <c r="T9">
-        <v>0.01559333014763064</v>
+        <v>0.04188988700917692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7674366666666667</v>
+        <v>0.7674366666666668</v>
       </c>
       <c r="H10">
         <v>2.30231</v>
       </c>
       <c r="I10">
-        <v>0.1816273560550485</v>
+        <v>0.1942117834744146</v>
       </c>
       <c r="J10">
-        <v>0.1816273560550485</v>
+        <v>0.1942117834744146</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>2.213425</v>
       </c>
       <c r="O10">
-        <v>0.06043313253436396</v>
+        <v>0.1518277324138807</v>
       </c>
       <c r="P10">
-        <v>0.06043313253436396</v>
+        <v>0.1518277324138807</v>
       </c>
       <c r="Q10">
         <v>0.5662211679722222</v>
       </c>
       <c r="R10">
-        <v>5.095990511749999</v>
+        <v>5.09599051175</v>
       </c>
       <c r="S10">
-        <v>0.01097631008034086</v>
+        <v>0.02948673469297595</v>
       </c>
       <c r="T10">
-        <v>0.01097631008034086</v>
+        <v>0.02948673469297596</v>
       </c>
     </row>
   </sheetData>
